--- a/DallasDesignSprint/ScrapingOutput/locations/MartyrsPark/MartyrsPark.xlsx
+++ b/DallasDesignSprint/ScrapingOutput/locations/MartyrsPark/MartyrsPark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,10 +488,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>32.7764143</v>
+        <v>32.7786063</v>
       </c>
       <c r="F2" t="n">
-        <v>-96.8180674</v>
+        <v>-96.81012870000001</v>
       </c>
     </row>
     <row r="3">
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>32.7764143</v>
+        <v>32.7786063</v>
       </c>
       <c r="F3" t="n">
-        <v>-96.8180674</v>
+        <v>-96.81012870000001</v>
       </c>
     </row>
     <row r="4">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32.7764143</v>
+        <v>32.7786063</v>
       </c>
       <c r="F4" t="n">
-        <v>-96.8180674</v>
+        <v>-96.81012870000001</v>
       </c>
     </row>
     <row r="5">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>32.7764143</v>
+        <v>32.7786063</v>
       </c>
       <c r="F5" t="n">
-        <v>-96.8180674</v>
+        <v>-96.81012870000001</v>
       </c>
     </row>
     <row r="6">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>32.7764143</v>
+        <v>32.7786063</v>
       </c>
       <c r="F6" t="n">
-        <v>-96.8180674</v>
+        <v>-96.81012870000001</v>
       </c>
     </row>
     <row r="7">
@@ -628,10 +628,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>32.7764143</v>
+        <v>32.7786063</v>
       </c>
       <c r="F7" t="n">
-        <v>-96.8180674</v>
+        <v>-96.81012870000001</v>
       </c>
     </row>
     <row r="8">
@@ -648,14 +648,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>32.7764143</v>
+        <v>32.7786063</v>
       </c>
       <c r="F8" t="n">
-        <v>-96.8180674</v>
+        <v>-96.81012870000001</v>
       </c>
     </row>
     <row r="9">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>32.7764143</v>
+        <v>32.7786063</v>
       </c>
       <c r="F9" t="n">
-        <v>-96.8180674</v>
+        <v>-96.81012870000001</v>
       </c>
     </row>
     <row r="10">
@@ -700,10 +700,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>32.7764143</v>
+        <v>32.7786063</v>
       </c>
       <c r="F10" t="n">
-        <v>-96.8180674</v>
+        <v>-96.81012870000001</v>
       </c>
     </row>
     <row r="11">
@@ -724,10 +724,58 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.7764143</v>
+        <v>32.7786063</v>
       </c>
       <c r="F11" t="n">
-        <v>-96.8180674</v>
+        <v>-96.81012870000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3 years ago</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>32.7786063</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-96.81012870000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>The Cheese burglar</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7 years ago</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>32.7786063</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-96.81012870000001</v>
       </c>
     </row>
   </sheetData>
